--- a/Data/PEM_efficiency_curve.xlsx
+++ b/Data/PEM_efficiency_curve.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mathias/Desktop/pull from github/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1AF7F6-5190-0944-8873-9B54CD3A9364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD7257-3C3E-4D40-ADE6-B28713231AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13700" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,7 +98,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,654 +259,342 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$107</c:f>
+              <c:f>Sheet2!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.5</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>50.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>52.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$107</c:f>
+              <c:f>Sheet2!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.574272452695393</c:v>
+                  <c:v>23.104209695952736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.104209695952736</c:v>
+                  <c:v>46.032093621114697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.590065981609598</c:v>
+                  <c:v>68.785662616162213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.032093621114697</c:v>
+                  <c:v>91.366897061730668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.430543004003333</c:v>
+                  <c:v>113.77774745299608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.785662616162213</c:v>
+                  <c:v>136.02013496129942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.097699057886345</c:v>
+                  <c:v>158.09595198315293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.366897061730668</c:v>
+                  <c:v>180.00706267695841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.59349951015952</c:v>
+                  <c:v>201.75530348775646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113.77774745299608</c:v>
+                  <c:v>223.34248366031795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124.91988012467482</c:v>
+                  <c:v>244.77038574087737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>136.02013496129942</c:v>
+                  <c:v>266.04076606780194</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147.07874761750864</c:v>
+                  <c:v>287.15535525147862</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>158.09595198315293</c:v>
+                  <c:v>308.11585864369528</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169.0719801997837</c:v>
+                  <c:v>328.9239567967831</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>180.00706267695841</c:v>
+                  <c:v>349.58130591278024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190.90142810836326</c:v>
+                  <c:v>370.08953828286798</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201.75530348775646</c:v>
+                  <c:v>390.45026271732496</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>212.56891412473354</c:v>
+                  <c:v>410.66506496623748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.34248366031795</c:v>
+                  <c:v>430.73550813119624</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>234.07623408237873</c:v>
+                  <c:v>450.66313306820444</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>244.77038574087737</c:v>
+                  <c:v>470.44945878201548</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>255.42515736294649</c:v>
+                  <c:v>490.09598281211152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>266.04076606780194</c:v>
+                  <c:v>509.60418161053019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>276.61742738149104</c:v>
+                  <c:v>528.97551091173773</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>287.15535525147862</c:v>
+                  <c:v>548.21140609474503</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>297.6547620610732</c:v>
+                  <c:v>567.31328253765537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>308.11585864369528</c:v>
+                  <c:v>586.28253596482523</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>318.53885429698943</c:v>
+                  <c:v>605.12054278682263</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>328.9239567967831</c:v>
+                  <c:v>623.82866043334957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>339.27137241089275</c:v>
+                  <c:v>642.40822767930479</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>349.58130591278024</c:v>
+                  <c:v>660.86056496414619</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>359.85396059506144</c:v>
+                  <c:v>679.18697470471477</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>370.08953828286798</c:v>
+                  <c:v>697.38874160167734</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>380.28823934706469</c:v>
+                  <c:v>715.46713293973596</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>390.45026271732496</c:v>
+                  <c:v>733.42339888175422</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>400.5758058950646</c:v>
+                  <c:v>751.25877275694381</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>410.66506496623748</c:v>
+                  <c:v>768.97447134324705</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>420.71823461399242</c:v>
+                  <c:v>786.57169514405768</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>430.73550813119624</c:v>
+                  <c:v>804.0516286594052</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>440.71707743282195</c:v>
+                  <c:v>821.41544065173696</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>450.66313306820444</c:v>
+                  <c:v>838.66428440641982</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>460.57386423316666</c:v>
+                  <c:v>855.79929798708417</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>470.44945878201548</c:v>
+                  <c:v>872.82160448593072</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>480.29010323941139</c:v>
+                  <c:v>889.73231226911184</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>490.09598281211152</c:v>
+                  <c:v>906.53251521730544</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>499.86728140058926</c:v>
+                  <c:v>923.22329296158534</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>509.60418161053019</c:v>
+                  <c:v>939.80571111469987</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>519.30686476420749</c:v>
+                  <c:v>956.2808214978586</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>528.97551091173773</c:v>
+                  <c:v>972.64966236313182</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>538.6102988422175</c:v>
+                  <c:v>988.91325861156065</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>548.21140609474503</c:v>
+                  <c:v>1005.0726220070715</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>557.77900896932397</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>567.31328253765537</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>576.81440065381582</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>586.28253596482523</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>595.71785992110415</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>605.12054278682263</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>614.49075365014164</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>623.82866043334957</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>633.13442990289309</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>642.40822767930479</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>651.65021824702899</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>660.86056496414619</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>670.03943007199814</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>679.18697470471477</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>688.30335889864239</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>697.38874160167734</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>706.44328068250343</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>715.46713293973596</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>724.46045411097282</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>733.42339888175422</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>742.356120894431</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>751.25877275694381</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>760.13150605151407</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>768.97447134324705</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>777.787818188649</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>786.57169514405768</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>795.32624977398996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>804.0516286594052</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>812.74797740588554</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>821.41544065173696</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>830.05416207600558</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>838.66428440641982</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>847.24594942724809</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>855.79929798708417</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>864.32447000655088</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>872.82160448593072</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>881.29083951272071</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>889.73231226911184</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>898.14615903939739</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>906.53251521730544</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>914.89151531326286</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>923.22329296158534</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>931.52798092760099</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>939.80571111469987</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>948.0566145713193</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>956.2808214978586</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>964.47846125352828</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>972.64966236313182</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>980.79455252378398</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>988.91325861156065</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>997.00590668808934</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1005.0726220070715</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1013.1135290207474</c:v>
+                  <c:v>1021.1287513862932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,654 +874,342 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$107</c:f>
+              <c:f>Sheet2!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.5</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>50.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>52.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$107</c:f>
+              <c:f>Sheet2!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.574272452695393</c:v>
+                  <c:v>23.104209695952736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.104209695952736</c:v>
+                  <c:v>46.032093621114697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.590065981609598</c:v>
+                  <c:v>68.785662616162213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.032093621114697</c:v>
+                  <c:v>91.366897061730668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.430543004003333</c:v>
+                  <c:v>113.77774745299608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.785662616162213</c:v>
+                  <c:v>136.02013496129942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.097699057886345</c:v>
+                  <c:v>158.09595198315293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.366897061730668</c:v>
+                  <c:v>180.00706267695841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.59349951015952</c:v>
+                  <c:v>201.75530348775646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113.77774745299608</c:v>
+                  <c:v>223.34248366031795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124.91988012467482</c:v>
+                  <c:v>244.77038574087737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>136.02013496129942</c:v>
+                  <c:v>266.04076606780194</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147.07874761750864</c:v>
+                  <c:v>287.15535525147862</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>158.09595198315293</c:v>
+                  <c:v>308.11585864369528</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169.0719801997837</c:v>
+                  <c:v>328.9239567967831</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>180.00706267695841</c:v>
+                  <c:v>349.58130591278024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190.90142810836326</c:v>
+                  <c:v>370.08953828286798</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201.75530348775646</c:v>
+                  <c:v>390.45026271732496</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>212.56891412473354</c:v>
+                  <c:v>410.66506496623748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.34248366031795</c:v>
+                  <c:v>430.73550813119624</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>234.07623408237873</c:v>
+                  <c:v>450.66313306820444</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>244.77038574087737</c:v>
+                  <c:v>470.44945878201548</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>255.42515736294649</c:v>
+                  <c:v>490.09598281211152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>266.04076606780194</c:v>
+                  <c:v>509.60418161053019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>276.61742738149104</c:v>
+                  <c:v>528.97551091173773</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>287.15535525147862</c:v>
+                  <c:v>548.21140609474503</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>297.6547620610732</c:v>
+                  <c:v>567.31328253765537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>308.11585864369528</c:v>
+                  <c:v>586.28253596482523</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>318.53885429698943</c:v>
+                  <c:v>605.12054278682263</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>328.9239567967831</c:v>
+                  <c:v>623.82866043334957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>339.27137241089275</c:v>
+                  <c:v>642.40822767930479</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>349.58130591278024</c:v>
+                  <c:v>660.86056496414619</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>359.85396059506144</c:v>
+                  <c:v>679.18697470471477</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>370.08953828286798</c:v>
+                  <c:v>697.38874160167734</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>380.28823934706469</c:v>
+                  <c:v>715.46713293973596</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>390.45026271732496</c:v>
+                  <c:v>733.42339888175422</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>400.5758058950646</c:v>
+                  <c:v>751.25877275694381</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>410.66506496623748</c:v>
+                  <c:v>768.97447134324705</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>420.71823461399242</c:v>
+                  <c:v>786.57169514405768</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>430.73550813119624</c:v>
+                  <c:v>804.0516286594052</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>440.71707743282195</c:v>
+                  <c:v>821.41544065173696</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>450.66313306820444</c:v>
+                  <c:v>838.66428440641982</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>460.57386423316666</c:v>
+                  <c:v>855.79929798708417</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>470.44945878201548</c:v>
+                  <c:v>872.82160448593072</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>480.29010323941139</c:v>
+                  <c:v>889.73231226911184</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>490.09598281211152</c:v>
+                  <c:v>906.53251521730544</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>499.86728140058926</c:v>
+                  <c:v>923.22329296158534</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>509.60418161053019</c:v>
+                  <c:v>939.80571111469987</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>519.30686476420749</c:v>
+                  <c:v>956.2808214978586</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>528.97551091173773</c:v>
+                  <c:v>972.64966236313182</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>538.6102988422175</c:v>
+                  <c:v>988.91325861156065</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>548.21140609474503</c:v>
+                  <c:v>1005.0726220070715</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>557.77900896932397</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>567.31328253765537</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>576.81440065381582</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>586.28253596482523</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>595.71785992110415</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>605.12054278682263</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>614.49075365014164</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>623.82866043334957</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>633.13442990289309</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>642.40822767930479</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>651.65021824702899</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>660.86056496414619</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>670.03943007199814</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>679.18697470471477</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>688.30335889864239</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>697.38874160167734</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>706.44328068250343</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>715.46713293973596</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>724.46045411097282</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>733.42339888175422</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>742.356120894431</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>751.25877275694381</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>760.13150605151407</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>768.97447134324705</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>777.787818188649</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>786.57169514405768</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>795.32624977398996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>804.0516286594052</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>812.74797740588554</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>821.41544065173696</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>830.05416207600558</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>838.66428440641982</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>847.24594942724809</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>855.79929798708417</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>864.32447000655088</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>872.82160448593072</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>881.29083951272071</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>889.73231226911184</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>898.14615903939739</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>906.53251521730544</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>914.89151531326286</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>923.22329296158534</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>931.52798092760099</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>939.80571111469987</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>948.0566145713193</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>956.2808214978586</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>964.47846125352828</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>972.64966236313182</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>980.79455252378398</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>988.91325861156065</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>997.00590668808934</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1005.0726220070715</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1013.1135290207474</c:v>
+                  <c:v>1021.1287513862932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,13 +2526,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3197,8 +2570,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3226,874 +2599,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="mian (2)"/>
-      <sheetName val="mian"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.5</v>
-          </cell>
-          <cell r="C6">
-            <v>11.574272452695393</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-          <cell r="C7">
-            <v>23.104209695952736</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.5</v>
-          </cell>
-          <cell r="C8">
-            <v>34.590065981609598</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>2</v>
-          </cell>
-          <cell r="C9">
-            <v>46.032093621114697</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>2.5</v>
-          </cell>
-          <cell r="C10">
-            <v>57.430543004003333</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>3</v>
-          </cell>
-          <cell r="C11">
-            <v>68.785662616162213</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>3.5</v>
-          </cell>
-          <cell r="C12">
-            <v>80.097699057886345</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>4</v>
-          </cell>
-          <cell r="C13">
-            <v>91.366897061730668</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>4.5</v>
-          </cell>
-          <cell r="C14">
-            <v>102.59349951015952</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>5</v>
-          </cell>
-          <cell r="C15">
-            <v>113.77774745299608</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>5.5</v>
-          </cell>
-          <cell r="C16">
-            <v>124.91988012467482</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>6</v>
-          </cell>
-          <cell r="C17">
-            <v>136.02013496129942</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>6.5</v>
-          </cell>
-          <cell r="C18">
-            <v>147.07874761750864</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>7</v>
-          </cell>
-          <cell r="C19">
-            <v>158.09595198315293</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>7.5</v>
-          </cell>
-          <cell r="C20">
-            <v>169.0719801997837</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>8</v>
-          </cell>
-          <cell r="C21">
-            <v>180.00706267695841</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>8.5</v>
-          </cell>
-          <cell r="C22">
-            <v>190.90142810836326</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>9</v>
-          </cell>
-          <cell r="C23">
-            <v>201.75530348775646</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>9.5</v>
-          </cell>
-          <cell r="C24">
-            <v>212.56891412473354</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>10</v>
-          </cell>
-          <cell r="C25">
-            <v>223.34248366031795</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>10.5</v>
-          </cell>
-          <cell r="C26">
-            <v>234.07623408237873</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>11</v>
-          </cell>
-          <cell r="C27">
-            <v>244.77038574087737</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>11.5</v>
-          </cell>
-          <cell r="C28">
-            <v>255.42515736294649</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>12</v>
-          </cell>
-          <cell r="C29">
-            <v>266.04076606780194</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>12.5</v>
-          </cell>
-          <cell r="C30">
-            <v>276.61742738149104</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>13</v>
-          </cell>
-          <cell r="C31">
-            <v>287.15535525147862</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>13.5</v>
-          </cell>
-          <cell r="C32">
-            <v>297.6547620610732</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>14</v>
-          </cell>
-          <cell r="C33">
-            <v>308.11585864369528</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>14.5</v>
-          </cell>
-          <cell r="C34">
-            <v>318.53885429698943</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>15</v>
-          </cell>
-          <cell r="C35">
-            <v>328.9239567967831</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>15.5</v>
-          </cell>
-          <cell r="C36">
-            <v>339.27137241089275</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>16</v>
-          </cell>
-          <cell r="C37">
-            <v>349.58130591278024</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>16.5</v>
-          </cell>
-          <cell r="C38">
-            <v>359.85396059506144</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>17</v>
-          </cell>
-          <cell r="C39">
-            <v>370.08953828286798</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>17.5</v>
-          </cell>
-          <cell r="C40">
-            <v>380.28823934706469</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>18</v>
-          </cell>
-          <cell r="C41">
-            <v>390.45026271732496</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>18.5</v>
-          </cell>
-          <cell r="C42">
-            <v>400.5758058950646</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>19</v>
-          </cell>
-          <cell r="C43">
-            <v>410.66506496623748</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>19.5</v>
-          </cell>
-          <cell r="C44">
-            <v>420.71823461399242</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>20</v>
-          </cell>
-          <cell r="C45">
-            <v>430.73550813119624</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>20.5</v>
-          </cell>
-          <cell r="C46">
-            <v>440.71707743282195</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>21</v>
-          </cell>
-          <cell r="C47">
-            <v>450.66313306820444</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>21.5</v>
-          </cell>
-          <cell r="C48">
-            <v>460.57386423316666</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>22</v>
-          </cell>
-          <cell r="C49">
-            <v>470.44945878201548</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>22.5</v>
-          </cell>
-          <cell r="C50">
-            <v>480.29010323941139</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>23</v>
-          </cell>
-          <cell r="C51">
-            <v>490.09598281211152</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>23.5</v>
-          </cell>
-          <cell r="C52">
-            <v>499.86728140058926</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>24</v>
-          </cell>
-          <cell r="C53">
-            <v>509.60418161053019</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>24.5</v>
-          </cell>
-          <cell r="C54">
-            <v>519.30686476420749</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>25</v>
-          </cell>
-          <cell r="C55">
-            <v>528.97551091173773</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>25.5</v>
-          </cell>
-          <cell r="C56">
-            <v>538.6102988422175</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>26</v>
-          </cell>
-          <cell r="C57">
-            <v>548.21140609474503</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>26.5</v>
-          </cell>
-          <cell r="C58">
-            <v>557.77900896932397</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>27</v>
-          </cell>
-          <cell r="C59">
-            <v>567.31328253765537</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>27.5</v>
-          </cell>
-          <cell r="C60">
-            <v>576.81440065381582</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>28</v>
-          </cell>
-          <cell r="C61">
-            <v>586.28253596482523</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>28.5</v>
-          </cell>
-          <cell r="C62">
-            <v>595.71785992110415</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>29</v>
-          </cell>
-          <cell r="C63">
-            <v>605.12054278682263</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>29.5</v>
-          </cell>
-          <cell r="C64">
-            <v>614.49075365014164</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>30</v>
-          </cell>
-          <cell r="C65">
-            <v>623.82866043334957</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>30.5</v>
-          </cell>
-          <cell r="C66">
-            <v>633.13442990289309</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>31</v>
-          </cell>
-          <cell r="C67">
-            <v>642.40822767930479</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>31.5</v>
-          </cell>
-          <cell r="C68">
-            <v>651.65021824702899</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>32</v>
-          </cell>
-          <cell r="C69">
-            <v>660.86056496414619</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>32.5</v>
-          </cell>
-          <cell r="C70">
-            <v>670.03943007199814</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>33</v>
-          </cell>
-          <cell r="C71">
-            <v>679.18697470471477</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>33.5</v>
-          </cell>
-          <cell r="C72">
-            <v>688.30335889864239</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>34</v>
-          </cell>
-          <cell r="C73">
-            <v>697.38874160167734</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>34.5</v>
-          </cell>
-          <cell r="C74">
-            <v>706.44328068250343</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>35</v>
-          </cell>
-          <cell r="C75">
-            <v>715.46713293973596</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>35.5</v>
-          </cell>
-          <cell r="C76">
-            <v>724.46045411097282</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>36</v>
-          </cell>
-          <cell r="C77">
-            <v>733.42339888175422</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>36.5</v>
-          </cell>
-          <cell r="C78">
-            <v>742.356120894431</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>37</v>
-          </cell>
-          <cell r="C79">
-            <v>751.25877275694381</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>37.5</v>
-          </cell>
-          <cell r="C80">
-            <v>760.13150605151407</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>38</v>
-          </cell>
-          <cell r="C81">
-            <v>768.97447134324705</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>38.5</v>
-          </cell>
-          <cell r="C82">
-            <v>777.787818188649</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>39</v>
-          </cell>
-          <cell r="C83">
-            <v>786.57169514405768</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>39.5</v>
-          </cell>
-          <cell r="C84">
-            <v>795.32624977398996</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>40</v>
-          </cell>
-          <cell r="C85">
-            <v>804.0516286594052</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>40.5</v>
-          </cell>
-          <cell r="C86">
-            <v>812.74797740588554</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>41</v>
-          </cell>
-          <cell r="C87">
-            <v>821.41544065173696</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>41.5</v>
-          </cell>
-          <cell r="C88">
-            <v>830.05416207600558</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>42</v>
-          </cell>
-          <cell r="C89">
-            <v>838.66428440641982</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>42.5</v>
-          </cell>
-          <cell r="C90">
-            <v>847.24594942724809</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>43</v>
-          </cell>
-          <cell r="C91">
-            <v>855.79929798708417</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>43.5</v>
-          </cell>
-          <cell r="C92">
-            <v>864.32447000655088</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>44</v>
-          </cell>
-          <cell r="C93">
-            <v>872.82160448593072</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>44.5</v>
-          </cell>
-          <cell r="C94">
-            <v>881.29083951272071</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>45</v>
-          </cell>
-          <cell r="C95">
-            <v>889.73231226911184</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>45.5</v>
-          </cell>
-          <cell r="C96">
-            <v>898.14615903939739</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>46</v>
-          </cell>
-          <cell r="C97">
-            <v>906.53251521730544</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>46.5</v>
-          </cell>
-          <cell r="C98">
-            <v>914.89151531326286</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>47</v>
-          </cell>
-          <cell r="C99">
-            <v>923.22329296158534</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>47.5</v>
-          </cell>
-          <cell r="C100">
-            <v>931.52798092760099</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>48</v>
-          </cell>
-          <cell r="C101">
-            <v>939.80571111469987</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>48.5</v>
-          </cell>
-          <cell r="C102">
-            <v>948.0566145713193</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>49</v>
-          </cell>
-          <cell r="C103">
-            <v>956.2808214978586</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>49.5</v>
-          </cell>
-          <cell r="C104">
-            <v>964.47846125352828</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>50</v>
-          </cell>
-          <cell r="C105">
-            <v>972.64966236313182</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>50.5</v>
-          </cell>
-          <cell r="C106">
-            <v>980.79455252378398</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>51</v>
-          </cell>
-          <cell r="C107">
-            <v>988.91325861156065</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>51.5</v>
-          </cell>
-          <cell r="C108">
-            <v>997.00590668808934</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>52</v>
-          </cell>
-          <cell r="C109">
-            <v>1005.0726220070715</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>52.5</v>
-          </cell>
-          <cell r="C110">
-            <v>1013.1135290207474</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4393,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191039EE-5961-284E-A86E-0E1CC1829C94}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4423,11 +2928,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
-        <v>11.574272452695393</v>
+        <f t="shared" ref="B3" si="0">($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
+        <v>23.104209695952736</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -4438,11 +2943,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>23.104209695952736</v>
+        <f t="shared" ref="B4:B34" si="1">($G$7*$G$3*$G$4*A4)/($G$5-$G$7*$G$4*$G$6*A4)</f>
+        <v>46.032093621114697</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -4453,11 +2958,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>34.590065981609598</v>
+        <f t="shared" si="1"/>
+        <v>68.785662616162213</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -4468,11 +2973,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>46.032093621114697</v>
+        <f t="shared" si="1"/>
+        <v>91.366897061730668</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -4483,11 +2988,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>57.430543004003333</v>
+        <f t="shared" si="1"/>
+        <v>113.77774745299608</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4498,906 +3003,697 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>68.785662616162213</v>
+        <f t="shared" si="1"/>
+        <v>136.02013496129942</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>80.097699057886345</v>
+        <f t="shared" si="1"/>
+        <v>158.09595198315293</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>91.366897061730668</v>
+        <f t="shared" si="1"/>
+        <v>180.00706267695841</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>102.59349951015952</v>
+        <f t="shared" si="1"/>
+        <v>201.75530348775646</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>113.77774745299608</v>
+        <f t="shared" si="1"/>
+        <v>223.34248366031795</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>124.91988012467482</v>
+        <f t="shared" si="1"/>
+        <v>244.77038574087737</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>136.02013496129942</v>
+        <f t="shared" si="1"/>
+        <v>266.04076606780194</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>147.07874761750864</v>
+        <f t="shared" si="1"/>
+        <v>287.15535525147862</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>158.09595198315293</v>
+        <f t="shared" si="1"/>
+        <v>308.11585864369528</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>169.0719801997837</v>
+        <f t="shared" si="1"/>
+        <v>328.9239567967831</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>180.00706267695841</v>
+        <f t="shared" si="1"/>
+        <v>349.58130591278024</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>190.90142810836326</v>
+        <f t="shared" si="1"/>
+        <v>370.08953828286798</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>201.75530348775646</v>
+        <f t="shared" si="1"/>
+        <v>390.45026271732496</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>212.56891412473354</v>
+        <f t="shared" si="1"/>
+        <v>410.66506496623748</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>223.34248366031795</v>
+        <f t="shared" si="1"/>
+        <v>430.73550813119624</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>234.07623408237873</v>
+        <f t="shared" si="1"/>
+        <v>450.66313306820444</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>244.77038574087737</v>
+        <f t="shared" si="1"/>
+        <v>470.44945878201548</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>255.42515736294649</v>
+        <f t="shared" si="1"/>
+        <v>490.09598281211152</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>266.04076606780194</v>
+        <f t="shared" si="1"/>
+        <v>509.60418161053019</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>276.61742738149104</v>
+        <f t="shared" si="1"/>
+        <v>528.97551091173773</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>287.15535525147862</v>
+        <f t="shared" si="1"/>
+        <v>548.21140609474503</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>297.6547620610732</v>
+        <f t="shared" si="1"/>
+        <v>567.31328253765537</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>308.11585864369528</v>
+        <f t="shared" si="1"/>
+        <v>586.28253596482523</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>318.53885429698943</v>
+        <f t="shared" si="1"/>
+        <v>605.12054278682263</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>328.9239567967831</v>
+        <f t="shared" si="1"/>
+        <v>623.82866043334957</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>15.5</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>339.27137241089275</v>
+        <f t="shared" si="1"/>
+        <v>642.40822767930479</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>349.58130591278024</v>
+        <f t="shared" si="1"/>
+        <v>660.86056496414619</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>359.85396059506144</v>
+        <f t="shared" ref="B35:B52" si="2">($G$7*$G$3*$G$4*A35)/($G$5-$G$7*$G$4*$G$6*A35)</f>
+        <v>679.18697470471477</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>370.08953828286798</v>
+        <f t="shared" si="2"/>
+        <v>697.38874160167734</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>380.28823934706469</v>
+        <f t="shared" si="2"/>
+        <v>715.46713293973596</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>390.45026271732496</v>
+        <f t="shared" si="2"/>
+        <v>733.42339888175422</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>400.5758058950646</v>
+        <f t="shared" si="2"/>
+        <v>751.25877275694381</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>410.66506496623748</v>
+        <f t="shared" si="2"/>
+        <v>768.97447134324705</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>19.5</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>420.71823461399242</v>
+        <f t="shared" si="2"/>
+        <v>786.57169514405768</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>430.73550813119624</v>
+        <f t="shared" si="2"/>
+        <v>804.0516286594052</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>440.71707743282195</v>
+        <f t="shared" si="2"/>
+        <v>821.41544065173696</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>450.66313306820444</v>
+        <f t="shared" si="2"/>
+        <v>838.66428440641982</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>21.5</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>460.57386423316666</v>
+        <f t="shared" si="2"/>
+        <v>855.79929798708417</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>470.44945878201548</v>
+        <f t="shared" si="2"/>
+        <v>872.82160448593072</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>480.29010323941139</v>
+        <f t="shared" si="2"/>
+        <v>889.73231226911184</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>490.09598281211152</v>
+        <f t="shared" si="2"/>
+        <v>906.53251521730544</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>23.5</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>499.86728140058926</v>
+        <f t="shared" si="2"/>
+        <v>923.22329296158534</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>509.60418161053019</v>
+        <f t="shared" si="2"/>
+        <v>939.80571111469987</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>24.5</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>519.30686476420749</v>
+        <f t="shared" si="2"/>
+        <v>956.2808214978586</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>528.97551091173773</v>
+        <f t="shared" si="2"/>
+        <v>972.64966236313182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>25.5</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>538.6102988422175</v>
+        <f>($G$7*$G$3*$G$4*A53)/($G$5-$G$7*$G$4*$G$6*A53)</f>
+        <v>988.91325861156065</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>548.21140609474503</v>
+        <f>($G$7*$G$3*$G$4*A54)/($G$5-$G$7*$G$4*$G$6*A54)</f>
+        <v>1005.0726220070715</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>26.5</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>557.77900896932397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>27</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>567.31328253765537</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>576.81440065381582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>586.28253596482523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>595.71785992110415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>605.12054278682263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>614.49075365014164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>30</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>623.82866043334957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>633.13442990289309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>31</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>642.40822767930479</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>651.65021824702899</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>32</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>660.86056496414619</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B107" si="1">($G$7*$G$3*$G$4*A67)/($G$5-$G$7*$G$4*$G$6*A67)</f>
-        <v>670.03943007199814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>33</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>679.18697470471477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>688.30335889864239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>34</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>697.38874160167734</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>706.44328068250343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>35</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>715.46713293973596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>724.46045411097282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>36</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
-        <v>733.42339888175422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>36.5</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
-        <v>742.356120894431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>37</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
-        <v>751.25877275694381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>760.13150605151407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>38</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>768.97447134324705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>38.5</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
-        <v>777.787818188649</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>39</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>786.57169514405768</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>39.5</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>795.32624977398996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>40</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
-        <v>804.0516286594052</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>40.5</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
-        <v>812.74797740588554</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>41</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
-        <v>821.41544065173696</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>830.05416207600558</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>42</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="1"/>
-        <v>838.66428440641982</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="1"/>
-        <v>847.24594942724809</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>43</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="1"/>
-        <v>855.79929798708417</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
-        <v>864.32447000655088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>44</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="1"/>
-        <v>872.82160448593072</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>44.5</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
-        <v>881.29083951272071</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>45</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
-        <v>889.73231226911184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
-        <v>898.14615903939739</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>46</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="1"/>
-        <v>906.53251521730544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
-        <v>914.89151531326286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>47</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="1"/>
-        <v>923.22329296158534</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>47.5</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="1"/>
-        <v>931.52798092760099</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>48</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
-        <v>939.80571111469987</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>48.5</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="1"/>
-        <v>948.0566145713193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>49</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="1"/>
-        <v>956.2808214978586</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="1"/>
-        <v>964.47846125352828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>50</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
-        <v>972.64966236313182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="1"/>
-        <v>980.79455252378398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>51</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="1"/>
-        <v>988.91325861156065</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>51.5</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="1"/>
-        <v>997.00590668808934</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>52</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="1"/>
-        <v>1005.0726220070715</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="1"/>
-        <v>1013.1135290207474</v>
+        <f>($G$7*$G$3*$G$4*A55)/($G$5-$G$7*$G$4*$G$6*A55)</f>
+        <v>1021.1287513862932</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2BC684CE4692F40B415FEC87D586093" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2dd4ab175ad0fcefda1366b6bfcffda">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2f85246-06f9-4113-aded-c6f2279b8b6e" xmlns:ns3="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c73b177c3784baaad4316a30c739546f" ns2:_="" ns3:_="">
+    <xsd:import namespace="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
+    <xsd:import namespace="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:Notestaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a2f85246-06f9-4113-aded-c6f2279b8b6e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Notestaken" ma:index="12" nillable="true" ma:displayName="Notes taken" ma:format="Dropdown" ma:internalName="Notestaken">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Yes"/>
+          <xsd:enumeration value="No"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b2102423-6c9a-45d0-aa71-0069027da28d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7905cf2a-bd9f-4dda-975f-6123bb27ec0e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F82A6CC-C4A5-43F2-B764-49A6C68C38F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB84CFF-00EC-476D-9E0D-CA094209FCAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
+    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
+    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/PEM_efficiency_curve.xlsx
+++ b/Data/PEM_efficiency_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mathias/Desktop/pull from github/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD7257-3C3E-4D40-ADE6-B28713231AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CD436-36F3-5D4A-8CA5-41A854701104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
   </bookViews>
@@ -2901,7 +2901,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3440,12 +3440,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3649,21 +3652,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F82A6CC-C4A5-43F2-B764-49A6C68C38F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
+    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3688,12 +3691,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F82A6CC-C4A5-43F2-B764-49A6C68C38F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
-    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/PEM_efficiency_curve.xlsx
+++ b/Data/PEM_efficiency_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mathias/Desktop/pull from github/Thesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolvur Reinert\Desktop\Thesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD7257-3C3E-4D40-ADE6-B28713231AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFEAFCB-E264-472D-B64D-5BA94892DE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -156,7 +156,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -238,7 +238,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -267,163 +267,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,163 +297,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.104209695952736</c:v>
+                  <c:v>223.34248366031795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.032093621114697</c:v>
+                  <c:v>430.73550813119624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.785662616162213</c:v>
+                  <c:v>623.82866043334957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.366897061730668</c:v>
+                  <c:v>804.0516286594052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.77774745299608</c:v>
+                  <c:v>972.64966236313182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136.02013496129942</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.09595198315293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180.00706267695841</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201.75530348775646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>223.34248366031795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>244.77038574087737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>266.04076606780194</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287.15535525147862</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>308.11585864369528</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>328.9239567967831</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>349.58130591278024</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370.08953828286798</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>390.45026271732496</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>410.66506496623748</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>430.73550813119624</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>450.66313306820444</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>470.44945878201548</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>490.09598281211152</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>509.60418161053019</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>528.97551091173773</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>548.21140609474503</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>567.31328253765537</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>586.28253596482523</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>605.12054278682263</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.82866043334957</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>642.40822767930479</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>660.86056496414619</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>679.18697470471477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>697.38874160167734</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>715.46713293973596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>733.42339888175422</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>751.25877275694381</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>768.97447134324705</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>786.57169514405768</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>804.0516286594052</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>821.41544065173696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>838.66428440641982</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>855.79929798708417</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>872.82160448593072</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>889.73231226911184</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>906.53251521730544</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>923.22329296158534</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>939.80571111469987</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>956.2808214978586</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>972.64966236313182</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>988.91325861156065</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1005.0726220070715</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1021.1287513862932</c:v>
+                  <c:v>1130.7123854295805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,7 +391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488541696"/>
@@ -736,7 +454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488602048"/>
@@ -784,7 +502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -798,7 +516,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -835,7 +553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -882,163 +600,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,163 +630,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.104209695952736</c:v>
+                  <c:v>223.34248366031795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.032093621114697</c:v>
+                  <c:v>430.73550813119624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.785662616162213</c:v>
+                  <c:v>623.82866043334957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.366897061730668</c:v>
+                  <c:v>804.0516286594052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.77774745299608</c:v>
+                  <c:v>972.64966236313182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136.02013496129942</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.09595198315293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180.00706267695841</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201.75530348775646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>223.34248366031795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>244.77038574087737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>266.04076606780194</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287.15535525147862</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>308.11585864369528</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>328.9239567967831</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>349.58130591278024</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370.08953828286798</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>390.45026271732496</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>410.66506496623748</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>430.73550813119624</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>450.66313306820444</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>470.44945878201548</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>490.09598281211152</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>509.60418161053019</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>528.97551091173773</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>548.21140609474503</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>567.31328253765537</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>586.28253596482523</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>605.12054278682263</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.82866043334957</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>642.40822767930479</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>660.86056496414619</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>679.18697470471477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>697.38874160167734</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>715.46713293973596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>733.42339888175422</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>751.25877275694381</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>768.97447134324705</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>786.57169514405768</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>804.0516286594052</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>821.41544065173696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>838.66428440641982</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>855.79929798708417</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>872.82160448593072</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>889.73231226911184</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>906.53251521730544</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>923.22329296158534</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>939.80571111469987</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>956.2808214978586</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>972.64966236313182</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>988.91325861156065</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1005.0726220070715</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1021.1287513862932</c:v>
+                  <c:v>1130.7123854295805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510795136"/>
@@ -1349,7 +785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511222800"/>
@@ -1397,7 +833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2901,15 +2337,15 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2926,13 +2362,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3" si="0">($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
-        <v>23.104209695952736</v>
+        <v>223.34248366031795</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2941,13 +2377,13 @@
         <v>0.91342449999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B34" si="1">($G$7*$G$3*$G$4*A4)/($G$5-$G$7*$G$4*$G$6*A4)</f>
-        <v>46.032093621114697</v>
+        <f t="shared" ref="B4:B24" si="1">($G$7*$G$3*$G$4*A4)/($G$5-$G$7*$G$4*$G$6*A4)</f>
+        <v>430.73550813119624</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2956,13 +2392,13 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>68.785662616162213</v>
+        <v>623.82866043334957</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -2971,13 +2407,13 @@
         <v>285830</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>91.366897061730668</v>
+        <v>804.0516286594052</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -2986,13 +2422,13 @@
         <v>-1.51438605452536E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>113.77774745299608</v>
+        <v>972.64966236313182</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -3001,437 +2437,155 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>136.02013496129942</v>
+        <v>1130.7123854295805</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>158.09595198315293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>180.00706267695841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>201.75530348775646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>223.34248366031795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>244.77038574087737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>266.04076606780194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>287.15535525147862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>308.11585864369528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>328.9239567967831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>349.58130591278024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>370.08953828286798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>390.45026271732496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>410.66506496623748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>430.73550813119624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>450.66313306820444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>470.44945878201548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>490.09598281211152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>509.60418161053019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>528.97551091173773</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
-        <v>548.21140609474503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
-        <v>567.31328253765537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
-        <v>586.28253596482523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
-        <v>605.12054278682263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>623.82866043334957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>642.40822767930479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>660.86056496414619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35:B52" si="2">($G$7*$G$3*$G$4*A35)/($G$5-$G$7*$G$4*$G$6*A35)</f>
-        <v>679.18697470471477</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>697.38874160167734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>715.46713293973596</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>733.42339888175422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="2"/>
-        <v>751.25877275694381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="2"/>
-        <v>768.97447134324705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="2"/>
-        <v>786.57169514405768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="2"/>
-        <v>804.0516286594052</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>821.41544065173696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="2"/>
-        <v>838.66428440641982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>855.79929798708417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="2"/>
-        <v>872.82160448593072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>889.73231226911184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>906.53251521730544</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>923.22329296158534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>939.80571111469987</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>956.2808214978586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>972.64966236313182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <f>($G$7*$G$3*$G$4*A53)/($G$5-$G$7*$G$4*$G$6*A53)</f>
-        <v>988.91325861156065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <f>($G$7*$G$3*$G$4*A54)/($G$5-$G$7*$G$4*$G$6*A54)</f>
-        <v>1005.0726220070715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <f>($G$7*$G$3*$G$4*A55)/($G$5-$G$7*$G$4*$G$6*A55)</f>
-        <v>1021.1287513862932</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/PEM_efficiency_curve.xlsx
+++ b/Data/PEM_efficiency_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mathias/Desktop/pull from github/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CD436-36F3-5D4A-8CA5-41A854701104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FBE4FA-9FB7-3845-8795-7633F229F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
   </bookViews>
@@ -259,170 +259,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$55</c:f>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
@@ -430,170 +286,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$55</c:f>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.104209695952736</c:v>
+                  <c:v>223.34248366031795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.032093621114697</c:v>
+                  <c:v>430.73550813119624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.785662616162213</c:v>
+                  <c:v>623.82866043334957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.366897061730668</c:v>
+                  <c:v>804.0516286594052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.77774745299608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>136.02013496129942</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.09595198315293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180.00706267695841</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201.75530348775646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>223.34248366031795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>244.77038574087737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>266.04076606780194</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287.15535525147862</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>308.11585864369528</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>328.9239567967831</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>349.58130591278024</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370.08953828286798</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>390.45026271732496</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>410.66506496623748</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>430.73550813119624</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>450.66313306820444</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>470.44945878201548</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>490.09598281211152</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>509.60418161053019</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>528.97551091173773</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>548.21140609474503</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>567.31328253765537</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>586.28253596482523</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>605.12054278682263</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.82866043334957</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>642.40822767930479</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>660.86056496414619</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>679.18697470471477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>697.38874160167734</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>715.46713293973596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>733.42339888175422</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>751.25877275694381</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>768.97447134324705</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>786.57169514405768</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>804.0516286594052</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>821.41544065173696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>838.66428440641982</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>855.79929798708417</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>872.82160448593072</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>889.73231226911184</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>906.53251521730544</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>923.22329296158534</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>939.80571111469987</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>956.2808214978586</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>972.64966236313182</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>988.91325861156065</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1005.0726220070715</c:v>
-                </c:pt>
-                <c:pt idx="53">
                   <c:v>1021.1287513862932</c:v>
                 </c:pt>
               </c:numCache>
@@ -874,170 +586,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$55</c:f>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
@@ -1045,170 +613,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$55</c:f>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.104209695952736</c:v>
+                  <c:v>223.34248366031795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.032093621114697</c:v>
+                  <c:v>430.73550813119624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.785662616162213</c:v>
+                  <c:v>623.82866043334957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.366897061730668</c:v>
+                  <c:v>804.0516286594052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.77774745299608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>136.02013496129942</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.09595198315293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180.00706267695841</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201.75530348775646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>223.34248366031795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>244.77038574087737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>266.04076606780194</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287.15535525147862</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>308.11585864369528</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>328.9239567967831</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>349.58130591278024</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370.08953828286798</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>390.45026271732496</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>410.66506496623748</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>430.73550813119624</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>450.66313306820444</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>470.44945878201548</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>490.09598281211152</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>509.60418161053019</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>528.97551091173773</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>548.21140609474503</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>567.31328253765537</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>586.28253596482523</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>605.12054278682263</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.82866043334957</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>642.40822767930479</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>660.86056496414619</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>679.18697470471477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>697.38874160167734</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>715.46713293973596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>733.42339888175422</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>751.25877275694381</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>768.97447134324705</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>786.57169514405768</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>804.0516286594052</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>821.41544065173696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>838.66428440641982</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>855.79929798708417</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>872.82160448593072</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>889.73231226911184</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>906.53251521730544</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>923.22329296158534</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>939.80571111469987</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>956.2808214978586</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>972.64966236313182</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>988.91325861156065</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1005.0726220070715</c:v>
-                </c:pt>
-                <c:pt idx="53">
                   <c:v>1021.1287513862932</c:v>
                 </c:pt>
               </c:numCache>
@@ -2526,13 +1950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2898,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191039EE-5961-284E-A86E-0E1CC1829C94}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2922,17 +2346,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>($G$7*$G$3*$G$4*A2)/($G$5-$G$7*$G$4*$G$6*A2)</f>
+        <f t="shared" ref="B2" si="0">($G$7*$G$3*$G$4*A2)/($G$5-$G$7*$G$4*$G$6*A2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3">
+        <v>10</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3" si="0">($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
-        <v>23.104209695952736</v>
+        <f>($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
+        <v>223.34248366031795</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2942,12 +2366,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4">
+        <v>20</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B34" si="1">($G$7*$G$3*$G$4*A4)/($G$5-$G$7*$G$4*$G$6*A4)</f>
-        <v>46.032093621114697</v>
+        <f t="shared" ref="B4:B6" si="1">($G$7*$G$3*$G$4*A4)/($G$5-$G$7*$G$4*$G$6*A4)</f>
+        <v>430.73550813119624</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2958,11 +2382,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>68.785662616162213</v>
+        <v>623.82866043334957</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -2973,11 +2397,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>91.366897061730668</v>
+        <v>804.0516286594052</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -2988,11 +2412,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>113.77774745299608</v>
+        <f>($G$7*$G$3*$G$4*A7)/($G$5-$G$7*$G$4*$G$6*A7)</f>
+        <v>1021.1287513862932</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -3002,436 +2426,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>136.02013496129942</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>158.09595198315293</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>180.00706267695841</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>201.75530348775646</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>223.34248366031795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>244.77038574087737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>266.04076606780194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>287.15535525147862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>308.11585864369528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>328.9239567967831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>349.58130591278024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>370.08953828286798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>390.45026271732496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>410.66506496623748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>430.73550813119624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>450.66313306820444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>470.44945878201548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>490.09598281211152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>509.60418161053019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>528.97551091173773</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
-        <v>548.21140609474503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
-        <v>567.31328253765537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
-        <v>586.28253596482523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
-        <v>605.12054278682263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>623.82866043334957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>642.40822767930479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>660.86056496414619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35:B52" si="2">($G$7*$G$3*$G$4*A35)/($G$5-$G$7*$G$4*$G$6*A35)</f>
-        <v>679.18697470471477</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>697.38874160167734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>715.46713293973596</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>733.42339888175422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="2"/>
-        <v>751.25877275694381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="2"/>
-        <v>768.97447134324705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="2"/>
-        <v>786.57169514405768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="2"/>
-        <v>804.0516286594052</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>821.41544065173696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="2"/>
-        <v>838.66428440641982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>855.79929798708417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="2"/>
-        <v>872.82160448593072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>889.73231226911184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>906.53251521730544</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>923.22329296158534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>939.80571111469987</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>956.2808214978586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>972.64966236313182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <f>($G$7*$G$3*$G$4*A53)/($G$5-$G$7*$G$4*$G$6*A53)</f>
-        <v>988.91325861156065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <f>($G$7*$G$3*$G$4*A54)/($G$5-$G$7*$G$4*$G$6*A54)</f>
-        <v>1005.0726220070715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <f>($G$7*$G$3*$G$4*A55)/($G$5-$G$7*$G$4*$G$6*A55)</f>
-        <v>1021.1287513862932</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3440,18 +2447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2BC684CE4692F40B415FEC87D586093" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2dd4ab175ad0fcefda1366b6bfcffda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2f85246-06f9-4113-aded-c6f2279b8b6e" xmlns:ns3="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c73b177c3784baaad4316a30c739546f" ns2:_="" ns3:_="">
     <xsd:import namespace="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
@@ -3651,6 +2646,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3661,17 +2668,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
-    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB84CFF-00EC-476D-9E0D-CA094209FCAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3690,6 +2686,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
+    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F82A6CC-C4A5-43F2-B764-49A6C68C38F5}">
   <ds:schemaRefs>

--- a/Data/PEM_efficiency_curve.xlsx
+++ b/Data/PEM_efficiency_curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolvur Reinert\Desktop\Thesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFEAFCB-E264-472D-B64D-5BA94892DE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1960318-04D9-407C-B2CA-B28A24C5344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
+    <workbookView xWindow="350" yWindow="-10310" windowWidth="17280" windowHeight="8960" xr2:uid="{9D2401FE-0EDF-7047-9218-8FB47D82F12E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -264,25 +264,166 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,25 +435,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3193049701884466E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23.104209695952736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.032093621114697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.785662616162213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.366897061730668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.77774745299608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.02013496129942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158.09595198315293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.00706267695841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201.75530348775646</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>223.34248366031795</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>244.77038574087737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>266.04076606780194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>287.15535525147862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308.11585864369528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>328.9239567967831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>349.58130591278024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370.08953828286798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>390.45026271732496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>410.66506496623748</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>430.73550813119624</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>450.66313306820444</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>470.44945878201548</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490.09598281211152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>509.60418161053019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>528.97551091173773</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>548.21140609474503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>567.31328253765537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>586.28253596482523</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>605.12054278682263</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>623.82866043334957</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>642.40822767930479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660.86056496414619</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>679.18697470471477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>697.38874160167734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>715.46713293973596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>733.42339888175422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>751.25877275694381</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>768.97447134324705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>786.57169514405768</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>804.0516286594052</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="41">
+                  <c:v>821.41544065173696</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>838.66428440641982</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>855.79929798708417</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>872.82160448593072</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>889.73231226911184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>906.53251521730544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>923.22329296158534</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>939.80571111469987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>956.2808214978586</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>972.64966236313182</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1130.7123854295805</c:v>
+                <c:pt idx="51">
+                  <c:v>988.91325861156065</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1005.0726220070715</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1021.1287513862932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,60 +874,336 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$55</c:f>
+              <c:f>Sheet2!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$55</c:f>
+              <c:f>Sheet2!$B$2:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3193049701884466E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23.104209695952736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.032093621114697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.785662616162213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.366897061730668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.77774745299608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.02013496129942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158.09595198315293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.00706267695841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201.75530348775646</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>223.34248366031795</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>244.77038574087737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>266.04076606780194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>287.15535525147862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308.11585864369528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>328.9239567967831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>349.58130591278024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370.08953828286798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>390.45026271732496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>410.66506496623748</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>430.73550813119624</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>450.66313306820444</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>470.44945878201548</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490.09598281211152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>509.60418161053019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>528.97551091173773</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>548.21140609474503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>567.31328253765537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>586.28253596482523</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>605.12054278682263</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>623.82866043334957</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>642.40822767930479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660.86056496414619</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>679.18697470471477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>697.38874160167734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>715.46713293973596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>733.42339888175422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>751.25877275694381</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>768.97447134324705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>786.57169514405768</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>804.0516286594052</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="41">
+                  <c:v>821.41544065173696</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>838.66428440641982</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>855.79929798708417</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>872.82160448593072</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>889.73231226911184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>906.53251521730544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>923.22329296158534</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>939.80571111469987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>956.2808214978586</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>972.64966236313182</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1130.7123854295805</c:v>
+                <c:pt idx="51">
+                  <c:v>988.91325861156065</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1005.0726220070715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,12 +2521,12 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2006,8 +2564,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2336,12 +2894,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191039EE-5961-284E-A86E-0E1CC1829C94}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2355,20 +2914,20 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B2">
         <f>($G$7*$G$3*$G$4*A2)/($G$5-$G$7*$G$4*$G$6*A2)</f>
-        <v>0</v>
+        <v>2.3193049701884466E-4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3" si="0">($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
-        <v>223.34248366031795</v>
+        <f t="shared" ref="B3:B5" si="0">($G$7*$G$3*$G$4*A3)/($G$5-$G$7*$G$4*$G$6*A3)</f>
+        <v>23.104209695952736</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2379,11 +2938,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B24" si="1">($G$7*$G$3*$G$4*A4)/($G$5-$G$7*$G$4*$G$6*A4)</f>
-        <v>430.73550813119624</v>
+        <f t="shared" si="0"/>
+        <v>46.032093621114697</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2394,198 +2953,480 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>68.785662616162213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>285830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B34" si="1">($G$7*$G$3*$G$4*A6)/($G$5-$G$7*$G$4*$G$6*A6)</f>
+        <v>91.366897061730668</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1.51438605452536E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>113.77774745299608</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>136.02013496129942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>158.09595198315293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>180.00706267695841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>201.75530348775646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>223.34248366031795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>244.77038574087737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>266.04076606780194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>287.15535525147862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>308.11585864369528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>328.9239567967831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>349.58130591278024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>370.08953828286798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>390.45026271732496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>410.66506496623748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>430.73550813119624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>450.66313306820444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>470.44945878201548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>490.09598281211152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>509.60418161053019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>528.97551091173773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>548.21140609474503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>567.31328253765537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>586.28253596482523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>605.12054278682263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B32">
         <f t="shared" si="1"/>
         <v>623.82866043334957</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>285830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>642.40822767930479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>660.86056496414619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B54" si="2">($G$7*$G$3*$G$4*A35)/($G$5-$G$7*$G$4*$G$6*A35)</f>
+        <v>679.18697470471477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>697.38874160167734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>715.46713293973596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>733.42339888175422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>751.25877275694381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>768.97447134324705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>786.57169514405768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
+      <c r="B42">
+        <f t="shared" si="2"/>
         <v>804.0516286594052</v>
       </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-1.51438605452536E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>821.41544065173696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>838.66428440641982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>855.79929798708417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>872.82160448593072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>889.73231226911184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>906.53251521730544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>923.22329296158534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>939.80571111469987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>956.2808214978586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
+      <c r="B52">
+        <f t="shared" si="2"/>
         <v>972.64966236313182</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3600000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>1130.7123854295805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>988.91325861156065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>1005.0726220070715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="3">($G$7*$G$3*$G$4*A55)/($G$5-$G$7*$G$4*$G$6*A55)</f>
+        <v>1021.1287513862932</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2603,8 +3444,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2BC684CE4692F40B415FEC87D586093" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2dd4ab175ad0fcefda1366b6bfcffda">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2f85246-06f9-4113-aded-c6f2279b8b6e" xmlns:ns3="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c73b177c3784baaad4316a30c739546f" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2BC684CE4692F40B415FEC87D586093" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc36c1e118a95775da8edfa7970c5c60">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2f85246-06f9-4113-aded-c6f2279b8b6e" xmlns:ns3="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc71707077fa6f4a2e2b574616dc0bc0" ns2:_="" ns3:_="">
     <xsd:import namespace="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
     <xsd:import namespace="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
     <xsd:element name="properties">
@@ -2623,6 +3476,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2683,6 +3537,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2802,18 +3661,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Notestaken xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2f85246-06f9-4113-aded-c6f2279b8b6e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F82A6CC-C4A5-43F2-B764-49A6C68C38F5}">
   <ds:schemaRefs>
@@ -2823,7 +3670,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB84CFF-00EC-476D-9E0D-CA094209FCAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7AFEC5-0659-4406-B8B4-66079B6D24B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2839,15 +3703,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B58244-24AA-4DCD-8269-8BF613E8610B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a2f85246-06f9-4113-aded-c6f2279b8b6e"/>
-    <ds:schemaRef ds:uri="c1503ef6-2b3d-436d-9aa2-08dd1e1e36bb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>